--- a/University-Management-main/src/main/resources/UMS_Data.xlsx
+++ b/University-Management-main/src/main/resources/UMS_Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="188">
   <si>
     <t>Subject Code</t>
   </si>
@@ -577,6 +577,15 @@
   </si>
   <si>
     <t>dde</t>
+  </si>
+  <si>
+    <t>MATH0001</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>hi</t>
   </si>
 </sst>
 </file>
@@ -910,7 +919,7 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:B1001"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -931,75 +940,71 @@
     </row>
     <row r="2" ht="18.0" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="18.0" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="18.0" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" ht="18.0" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
+      <c r="A5" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="18.0" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
+      <c r="A6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" ht="18.0" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="18.0" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="18.0" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="18.0" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" ht="18.0" customHeight="1">
       <c r="A11" s="2"/>
@@ -4957,9 +4962,21 @@
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
     </row>
-    <row r="1000" ht="18.0" customHeight="1">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
+    <row r="1000">
+      <c r="A1000" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B1000" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B1001" t="s" s="0">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions/>
